--- a/excels/Core/Trad XGE.xlsx
+++ b/excels/Core/Trad XGE.xlsx
@@ -1,35 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51E9F19-D120-4114-A812-E212F07BF896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
     <sheet name="actions" sheetId="21" r:id="rId2"/>
     <sheet name="item" sheetId="3" r:id="rId3"/>
-    <sheet name="spell" sheetId="9" r:id="rId4"/>
-    <sheet name="class" sheetId="10" r:id="rId5"/>
-    <sheet name="background" sheetId="16" r:id="rId6"/>
-    <sheet name="feat" sheetId="17" r:id="rId7"/>
-    <sheet name="variantrule" sheetId="22" r:id="rId8"/>
-    <sheet name="deity" sheetId="19" r:id="rId9"/>
-    <sheet name="monster" sheetId="20" r:id="rId10"/>
-    <sheet name="Temporal" sheetId="2" r:id="rId11"/>
+    <sheet name="trap" sheetId="23" r:id="rId4"/>
+    <sheet name="spell" sheetId="9" r:id="rId5"/>
+    <sheet name="class" sheetId="10" r:id="rId6"/>
+    <sheet name="background" sheetId="16" r:id="rId7"/>
+    <sheet name="feat" sheetId="17" r:id="rId8"/>
+    <sheet name="variantrule" sheetId="22" r:id="rId9"/>
+    <sheet name="deity" sheetId="19" r:id="rId10"/>
+    <sheet name="monster" sheetId="20" r:id="rId11"/>
+    <sheet name="Temporal" sheetId="2" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">background!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">background!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">item!$B$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">spell!$B$1:$C$362</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">spell!$B$1:$C$362</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="331">
   <si>
     <t>quickref</t>
   </si>
@@ -986,12 +993,48 @@
   </si>
   <si>
     <t>Spellcasting</t>
+  </si>
+  <si>
+    <t>Bear Trap</t>
+  </si>
+  <si>
+    <t>Crossbow Trap</t>
+  </si>
+  <si>
+    <t>Falling Portcullis</t>
+  </si>
+  <si>
+    <t>Fiery Blast Trap</t>
+  </si>
+  <si>
+    <t>Net Trap</t>
+  </si>
+  <si>
+    <t>Path of Blades</t>
+  </si>
+  <si>
+    <t>Pit Trap</t>
+  </si>
+  <si>
+    <t>Poison Needle Trap</t>
+  </si>
+  <si>
+    <t>Poisoned Tempest</t>
+  </si>
+  <si>
+    <t>Scything Blade Trap</t>
+  </si>
+  <si>
+    <t>Sleep of Ages Trap</t>
+  </si>
+  <si>
+    <t>Sphere of Crushing Doom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1037,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1062,7 +1105,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,12 +1115,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1120,7 +1165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1153,9 +1198,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1188,6 +1250,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1363,24 +1442,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="50.875" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>25</v>
@@ -1398,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
@@ -1433,26 +1512,53 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="16.350000000000001" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>203</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1460,7 +1566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>204</v>
       </c>
@@ -1473,18 +1579,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
-    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="9" style="6"/>
   </cols>
   <sheetData/>
@@ -1493,20 +1599,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1514,7 +1620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>314</v>
       </c>
@@ -1522,7 +1628,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>316</v>
       </c>
@@ -1536,22 +1642,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="51.25" customWidth="1"/>
-    <col min="5" max="5" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1561,30 +1667,117 @@
       <c r="D1" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="188" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343EC1CE-A85F-4B75-9B37-B928B6A8494C}">
+  <dimension ref="B1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D96"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.125" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="68.125" customWidth="1"/>
-    <col min="5" max="5" width="71.25" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="68.140625" customWidth="1"/>
+    <col min="5" max="5" width="71.28515625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1593,7 +1786,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>178</v>
       </c>
@@ -1601,7 +1794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>122</v>
       </c>
@@ -1609,7 +1802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>165</v>
       </c>
@@ -1617,7 +1810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>217</v>
       </c>
@@ -1625,7 +1818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>166</v>
       </c>
@@ -1633,7 +1826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>131</v>
       </c>
@@ -1641,7 +1834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>130</v>
       </c>
@@ -1649,7 +1842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>198</v>
       </c>
@@ -1657,7 +1850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>132</v>
       </c>
@@ -1673,7 +1866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>163</v>
       </c>
@@ -1681,7 +1874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>135</v>
       </c>
@@ -1689,7 +1882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>136</v>
       </c>
@@ -1697,7 +1890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>138</v>
       </c>
@@ -1713,7 +1906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>137</v>
       </c>
@@ -1721,7 +1914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>141</v>
       </c>
@@ -1729,7 +1922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>125</v>
       </c>
@@ -1753,7 +1946,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>143</v>
       </c>
@@ -1761,7 +1954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>208</v>
       </c>
@@ -1769,7 +1962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>126</v>
       </c>
@@ -1785,7 +1978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>200</v>
       </c>
@@ -1793,7 +1986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>123</v>
       </c>
@@ -1809,7 +2002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>191</v>
       </c>
@@ -1817,7 +2010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>162</v>
       </c>
@@ -1825,7 +2018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>153</v>
       </c>
@@ -1833,7 +2026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -1865,7 +2058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>128</v>
       </c>
@@ -1873,7 +2066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>140</v>
       </c>
@@ -1897,7 +2090,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>177</v>
       </c>
@@ -1905,7 +2098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>195</v>
       </c>
@@ -1913,7 +2106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>168</v>
       </c>
@@ -1921,7 +2114,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>167</v>
       </c>
@@ -1929,7 +2122,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>169</v>
       </c>
@@ -1937,7 +2130,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>170</v>
       </c>
@@ -1945,7 +2138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>175</v>
       </c>
@@ -1953,7 +2146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>212</v>
       </c>
@@ -1961,7 +2154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>187</v>
       </c>
@@ -1985,7 +2178,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>196</v>
       </c>
@@ -2001,7 +2194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>180</v>
       </c>
@@ -2017,7 +2210,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>155</v>
       </c>
@@ -2025,7 +2218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>133</v>
       </c>
@@ -2033,7 +2226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>182</v>
       </c>
@@ -2049,7 +2242,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>188</v>
       </c>
@@ -2057,7 +2250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>201</v>
       </c>
@@ -2065,7 +2258,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>160</v>
       </c>
@@ -2081,7 +2274,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>194</v>
       </c>
@@ -2089,7 +2282,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>144</v>
       </c>
@@ -2105,7 +2298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>205</v>
       </c>
@@ -2113,7 +2306,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>181</v>
       </c>
@@ -2121,7 +2314,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>156</v>
       </c>
@@ -2129,7 +2322,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>154</v>
       </c>
@@ -2137,7 +2330,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>147</v>
       </c>
@@ -2145,7 +2338,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>129</v>
       </c>
@@ -2153,7 +2346,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>186</v>
       </c>
@@ -2161,7 +2354,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>146</v>
       </c>
@@ -2169,7 +2362,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>158</v>
       </c>
@@ -2177,7 +2370,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>149</v>
       </c>
@@ -2185,7 +2378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>173</v>
       </c>
@@ -2193,7 +2386,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>174</v>
       </c>
@@ -2209,7 +2402,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>209</v>
       </c>
@@ -2225,7 +2418,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>190</v>
       </c>
@@ -2233,7 +2426,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>215</v>
       </c>
@@ -2241,7 +2434,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>179</v>
       </c>
@@ -2249,7 +2442,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>202</v>
       </c>
@@ -2265,7 +2458,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>214</v>
       </c>
@@ -2281,7 +2474,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>185</v>
       </c>
@@ -2289,7 +2482,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>184</v>
       </c>
@@ -2297,7 +2490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>183</v>
       </c>
@@ -2313,7 +2506,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>148</v>
       </c>
@@ -2321,7 +2514,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>211</v>
       </c>
@@ -2329,7 +2522,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>189</v>
       </c>
@@ -2337,7 +2530,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>176</v>
       </c>
@@ -2354,8 +2547,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C362">
-    <sortState ref="B2:C362">
+  <autoFilter ref="B1:C362" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C362">
       <sortCondition ref="C1:C362"/>
     </sortState>
   </autoFilter>
@@ -2364,52 +2557,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:AV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
-    <col min="10" max="10" width="8.25" customWidth="1"/>
-    <col min="11" max="11" width="23.75" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="15" max="15" width="19.125" customWidth="1"/>
-    <col min="16" max="16" width="18.75" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="9.25" customWidth="1"/>
-    <col min="19" max="19" width="20.25" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="7.25" customWidth="1"/>
-    <col min="23" max="23" width="26.875" customWidth="1"/>
-    <col min="24" max="24" width="24.625" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" customWidth="1"/>
+    <col min="23" max="23" width="26.85546875" customWidth="1"/>
+    <col min="24" max="24" width="24.5703125" customWidth="1"/>
     <col min="27" max="27" width="25" customWidth="1"/>
-    <col min="28" max="28" width="20.625" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="24.75" customWidth="1"/>
-    <col min="32" max="32" width="14.5" customWidth="1"/>
-    <col min="34" max="34" width="8.75" customWidth="1"/>
-    <col min="35" max="35" width="18.375" customWidth="1"/>
-    <col min="36" max="36" width="15.125" customWidth="1"/>
+    <col min="28" max="28" width="20.5703125" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" customWidth="1"/>
+    <col min="31" max="31" width="24.7109375" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" customWidth="1"/>
+    <col min="35" max="35" width="18.42578125" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" customWidth="1"/>
     <col min="38" max="38" width="10" customWidth="1"/>
     <col min="39" max="39" width="21" customWidth="1"/>
-    <col min="40" max="40" width="17.375" customWidth="1"/>
-    <col min="43" max="43" width="21.375" customWidth="1"/>
+    <col min="40" max="40" width="17.42578125" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" customWidth="1"/>
     <col min="44" max="44" width="20" customWidth="1"/>
-    <col min="47" max="47" width="23.75" customWidth="1"/>
-    <col min="48" max="48" width="21.875" customWidth="1"/>
+    <col min="47" max="47" width="23.7109375" customWidth="1"/>
+    <col min="48" max="48" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2687,32 +2880,29 @@
       <c r="AJ6" t="s">
         <v>278</v>
       </c>
-      <c r="AQ6" s="10"/>
-    </row>
-    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C7" s="10"/>
-    </row>
+    </row>
+    <row r="7" spans="2:48" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="188" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
@@ -2721,26 +2911,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.75" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
@@ -2748,7 +2938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>298</v>
       </c>
@@ -2772,7 +2962,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>301</v>
       </c>
@@ -2780,7 +2970,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>302</v>
       </c>
@@ -2796,7 +2986,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>304</v>
       </c>
@@ -2812,7 +3002,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>306</v>
       </c>
@@ -2828,7 +3018,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>308</v>
       </c>
@@ -2836,7 +3026,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>309</v>
       </c>
@@ -2844,7 +3034,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>310</v>
       </c>
@@ -2852,7 +3042,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>311</v>
       </c>
@@ -2860,7 +3050,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>312</v>
       </c>
@@ -2873,21 +3063,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
@@ -2895,39 +3085,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>317</v>
       </c>
       <c r="C2" t="s">
         <v>318</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
